--- a/DATA_goal/Junction_Flooding_418.xlsx
+++ b/DATA_goal/Junction_Flooding_418.xlsx
@@ -759,103 +759,103 @@
         <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.39</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.25</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
+      <c r="Z5" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>4.39</v>
       </c>
-      <c r="U5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.44</v>
-      </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_418.xlsx
+++ b/DATA_goal/Junction_Flooding_418.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45099.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45099.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.03</v>
+        <v>19.164</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.47</v>
+        <v>13.795</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>1.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.14</v>
+        <v>41.971</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.17</v>
+        <v>33.331</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.32</v>
+        <v>14.963</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.12</v>
+        <v>56.57</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.62</v>
+        <v>23.269</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.71</v>
+        <v>10.102</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.87</v>
+        <v>14.811</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.52</v>
+        <v>16.667</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.68</v>
+        <v>17.669</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.31</v>
+        <v>4.831</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.28</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.49</v>
+        <v>21.216</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.82</v>
+        <v>12.945</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.488</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.106</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32</v>
+        <v>221.583</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.24</v>
+        <v>42.043</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.12</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.57</v>
+        <v>27.897</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.17</v>
+        <v>14.583</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.51</v>
+        <v>2.597</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.9</v>
+        <v>27.98</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.95</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.27</v>
+        <v>10.997</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.21</v>
+        <v>12.968</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.22</v>
+        <v>17.232</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.41</v>
+        <v>51.768</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.63</v>
+        <v>7.647</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.66</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45099.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.15</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.47</v>
+        <v>6.09</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>1.048</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.23</v>
+        <v>18.963</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.17</v>
+        <v>14.726</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.45</v>
+        <v>6.677</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.94</v>
+        <v>29.839</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.8</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.81</v>
+        <v>4.499</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.79</v>
+        <v>6.456</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.34</v>
+        <v>7.505</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.78</v>
+        <v>7.991</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.12</v>
+        <v>2.177</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.4</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.7</v>
+        <v>9.513999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.93</v>
+        <v>5.969</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.582</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.39</v>
+        <v>95.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.84</v>
+        <v>19.075</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.22</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.96</v>
+        <v>12.528</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.37</v>
+        <v>6.51</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.306</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.4</v>
+        <v>14.077</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.06</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.13</v>
+        <v>5.022</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.26</v>
+        <v>5.909</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.7</v>
+        <v>7.684</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.27</v>
+        <v>27.528</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.58</v>
+        <v>3.371</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.8</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45099.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.17</v>
+        <v>10.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.19</v>
+        <v>7.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>9.35</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.73</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>1.28</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.21</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.79</v>
+        <v>11.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.61</v>
+        <v>6.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>112.84</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>43.93</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.38</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>11.21</v>
+        <v>28.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.94</v>
+        <v>4.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>29.23</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.72</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.01</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_418.xlsx
+++ b/DATA_goal/Junction_Flooding_418.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45099.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45099.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.164</v>
+        <v>3.03</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.795</v>
+        <v>2.474</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.971</v>
+        <v>7.136</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.331</v>
+        <v>6.173</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.963</v>
+        <v>2.315</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.57</v>
+        <v>6.122</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.269</v>
+        <v>3.619</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.102</v>
+        <v>1.708</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.811</v>
+        <v>2.872</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.667</v>
+        <v>3.517</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.669</v>
+        <v>2.685</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.831</v>
+        <v>1.306</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.038</v>
+        <v>2.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.216</v>
+        <v>3.491</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.945</v>
+        <v>1.818</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.488</v>
+        <v>0.068</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.106</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.583</v>
+        <v>31.996</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>42.043</v>
+        <v>6.244</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.881</v>
+        <v>2.115</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.897</v>
+        <v>4.574</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.583</v>
+        <v>2.174</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.597</v>
+        <v>0.51</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.98</v>
+        <v>2.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.261</v>
+        <v>1.953</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.997</v>
+        <v>2.275</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.968</v>
+        <v>2.215</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.232</v>
+        <v>4.218</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.883</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.768</v>
+        <v>5.406</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.647</v>
+        <v>1.633</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.354</v>
+        <v>2.655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45099.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.598000000000001</v>
+        <v>3.154</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.09</v>
+        <v>2.468</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.048</v>
+        <v>0.034</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.963</v>
+        <v>7.232</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.726</v>
+        <v>6.168</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.677</v>
+        <v>2.445</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.839</v>
+        <v>8.944000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.471</v>
+        <v>3.801</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.499</v>
+        <v>1.813</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.456</v>
+        <v>2.791</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.505</v>
+        <v>3.339</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.991</v>
+        <v>2.781</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.177</v>
+        <v>1.122</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.767</v>
+        <v>2.403</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.513999999999999</v>
+        <v>3.697</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.969</v>
+        <v>1.928</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.044</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.582</v>
+        <v>0.655</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.7</v>
+        <v>32.387</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.075</v>
+        <v>6.842</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.247</v>
+        <v>2.218</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.528</v>
+        <v>4.959</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.51</v>
+        <v>2.371</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.306</v>
+        <v>0.434</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.077</v>
+        <v>4.404</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.517</v>
+        <v>2.058</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.022</v>
+        <v>2.132</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.909</v>
+        <v>2.256</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.684</v>
+        <v>3.701</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.53</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.528</v>
+        <v>8.269</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.371</v>
+        <v>1.583</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>2.796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45099.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.04</v>
+        <v>4.168</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.29</v>
+        <v>3.193</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.068</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.07</v>
+        <v>9.355</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.52</v>
+        <v>7.882</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.83</v>
+        <v>3.265</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.95</v>
+        <v>12.245</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.22</v>
+        <v>5.042</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.32</v>
+        <v>2.336</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.76</v>
+        <v>3.545</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>4.083</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.35</v>
+        <v>3.725</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.54</v>
+        <v>1.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.9</v>
+        <v>3.214</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.14</v>
+        <v>4.792</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.83</v>
+        <v>2.608</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.045</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.549</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.84</v>
+        <v>43.932</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.07</v>
+        <v>9.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.29</v>
+        <v>2.964</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.64</v>
+        <v>6.377</v>
       </c>
       <c r="X5" s="4" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.954</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.708</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>4.389</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>11.209</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.728</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.72</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>7.67</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
+      <c r="AC6" s="4" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.01</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_418.xlsx
+++ b/DATA_goal/Junction_Flooding_418.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45099.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45099.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.03</v>
+        <v>19.164</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.474</v>
+        <v>13.795</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>1.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.136</v>
+        <v>41.971</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.173</v>
+        <v>33.331</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.315</v>
+        <v>14.963</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.122</v>
+        <v>56.57</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.619</v>
+        <v>23.269</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.708</v>
+        <v>10.102</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.872</v>
+        <v>14.811</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.517</v>
+        <v>16.667</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.685</v>
+        <v>17.669</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.306</v>
+        <v>4.831</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.28</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.491</v>
+        <v>21.216</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.818</v>
+        <v>12.945</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.068</v>
+        <v>1.488</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>1.106</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>31.996</v>
+        <v>221.583</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.244</v>
+        <v>42.043</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.115</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.574</v>
+        <v>27.897</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.174</v>
+        <v>14.583</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.51</v>
+        <v>2.597</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.9</v>
+        <v>27.98</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.953</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.275</v>
+        <v>10.997</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.215</v>
+        <v>12.968</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.218</v>
+        <v>17.232</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.883</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.406</v>
+        <v>51.768</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.633</v>
+        <v>7.647</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.655</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45099.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.154</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.468</v>
+        <v>6.09</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.034</v>
+        <v>1.048</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.232</v>
+        <v>18.963</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.168</v>
+        <v>14.726</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.445</v>
+        <v>6.677</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.944000000000001</v>
+        <v>29.839</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.801</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.813</v>
+        <v>4.499</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.791</v>
+        <v>6.456</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.339</v>
+        <v>7.505</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.781</v>
+        <v>7.991</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.122</v>
+        <v>2.177</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.403</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.697</v>
+        <v>9.513999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.928</v>
+        <v>5.969</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.044</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.655</v>
+        <v>0.582</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.387</v>
+        <v>95.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.842</v>
+        <v>19.075</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.218</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.959</v>
+        <v>12.528</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.371</v>
+        <v>6.51</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.434</v>
+        <v>1.306</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.404</v>
+        <v>14.077</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.058</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.132</v>
+        <v>5.022</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.256</v>
+        <v>5.909</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.701</v>
+        <v>7.684</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.269</v>
+        <v>27.528</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.583</v>
+        <v>3.371</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.796</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45099.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.168</v>
+        <v>10.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.193</v>
+        <v>7.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.068</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.355</v>
+        <v>22.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.882</v>
+        <v>17.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.265</v>
+        <v>7.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.245</v>
+        <v>30.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.042</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.336</v>
+        <v>5.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.545</v>
+        <v>7.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.083</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.725</v>
+        <v>9.35</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.28</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.214</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.792</v>
+        <v>11.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.608</v>
+        <v>6.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.045</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.549</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>43.932</v>
+        <v>112.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.06</v>
+        <v>22.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.964</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.377</v>
+        <v>14.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.177</v>
+        <v>7.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.954</v>
+        <v>14.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.708</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.601</v>
+        <v>5.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.895</v>
+        <v>6.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.389</v>
+        <v>9.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.378</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.209</v>
+        <v>28.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.936</v>
+        <v>4.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.728</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>29.23</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.72</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.01</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>
